--- a/doc/效果类型枚举.xlsx
+++ b/doc/效果类型枚举.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>效果效果编号</t>
   </si>
@@ -380,6 +380,82 @@
   </si>
   <si>
     <t>枚举描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄攻击力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄攻击力%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄生命%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄点击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄点击%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体英雄速度%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少BOSS血量%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少写负数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加BOSS战时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_life</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap_rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -514,12 +590,21 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -810,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="14.25"/>
@@ -1194,14 +1279,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
